--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -564,7 +564,7 @@
     <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -564,7 +564,7 @@
     <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MapID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,10 @@
   </si>
   <si>
     <t>事件参数4</t>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,10 +550,10 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
@@ -578,34 +578,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -657,39 +657,45 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SubMapConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +131,40 @@
     <t>事件参数4</t>
   </si>
   <si>
-    <t>PK</t>
+    <t>固定战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回程点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70012|70006|130006|120015|170012</t>
+  </si>
+  <si>
+    <t>100018|30019|190009|50004|150004|150009</t>
+  </si>
+  <si>
+    <t>50014|190001|2|9|190017|50009|150015|30000|16|100004</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|8|11|12|13|14|15|16|17|9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,12 +213,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,12 +239,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -224,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,16 +559,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,30 +590,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -608,7 +652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -646,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -684,23 +728,174 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>100009</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>100013</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>130004</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3570" yWindow="180" windowWidth="14970" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsAddExplore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否计入探度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pars1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,36 +127,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>出生点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回程点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补给点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70012|70006|130006|120015|170012</t>
-  </si>
-  <si>
-    <t>100018|30019|190009|50004|150004|150009</t>
-  </si>
-  <si>
-    <t>50014|190001|2|9|190017|50009|150015|30000|16|100004</t>
-  </si>
-  <si>
-    <t>1|2|3|4|5|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7|8|11|12|13|14|15|16|17|9</t>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个坐标探索值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerLocationMath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180013|130022|180024|240019|130016</t>
+  </si>
+  <si>
+    <t>90022|230012|150009|210029|140028|240026|100011</t>
+  </si>
+  <si>
+    <t>60014|290017|210006|280009|320021|60007|280030|290024|120005|70029|180032|40021</t>
+  </si>
+  <si>
+    <t>110014|100006|60025|180028|70010|210025|80017|190009|270013|260022|120025|170005</t>
+  </si>
+  <si>
+    <t>30011|100031</t>
+  </si>
+  <si>
+    <t>190026|140014|240012|130020|180013|220023|250018|110015|160010|160024</t>
+  </si>
+  <si>
+    <t>130026|70014|90022|280015|80026|210009|110010|260010|250026|280022</t>
+  </si>
+  <si>
+    <t>120005|70007|280004|290027|220031|300011|170005</t>
+  </si>
+  <si>
+    <t>250022|170029|60026|150007|200005|90011|220014|120028|240006|130012|220027|130023|70019|50023|30018</t>
+  </si>
+  <si>
+    <t>20025|230004</t>
+  </si>
+  <si>
+    <t>130016|200023|170012|160021|230017|250013|210012|240022</t>
+  </si>
+  <si>
+    <t>190009|100016|240026|160025|270018|120021|130011|240009</t>
+  </si>
+  <si>
+    <t>90012|280023|290012|200027|150007|80021</t>
+  </si>
+  <si>
+    <t>160004|250029|100027|280006|300027|310018|150028|60015</t>
+  </si>
+  <si>
+    <t>270026|80007|50018|180029|230025|270009|80018|270013|120013|120008|300019|260020|180025|140019|120005|160009</t>
+  </si>
+  <si>
+    <t>300008|50028</t>
+  </si>
+  <si>
+    <t>230023|160021|190013|160015|230016</t>
+  </si>
+  <si>
+    <t>120021|120016|100013|150024|190024</t>
+  </si>
+  <si>
+    <t>230011|270017|200008|270021|270013</t>
+  </si>
+  <si>
+    <t>190028|230028|70021|110025|160028</t>
+  </si>
+  <si>
+    <t>140006|120009|70012|90008|170008</t>
+  </si>
+  <si>
+    <t>230006|310011|260006|290008|310014</t>
+  </si>
+  <si>
+    <t>120032|80029|40023|40018|60026</t>
+  </si>
+  <si>
+    <t>250018|230008|130026|130013|30025|140019|170026|50019|50026|300019|100010|260024|50029|190010|210026|270009|80015|80024</t>
+  </si>
+  <si>
+    <t>110008|110028</t>
+  </si>
+  <si>
+    <t>170021|230018|210021|160016</t>
+  </si>
+  <si>
+    <t>220015|180012|190024|150019</t>
+  </si>
+  <si>
+    <t>210026|250013|240022|130023|270018</t>
+  </si>
+  <si>
+    <t>300016|290025|120026|80011|90024|180008|110014|230029|110019|260010|170027|130009</t>
+  </si>
+  <si>
+    <t>80029|50015|50020|50025|130030</t>
+  </si>
+  <si>
+    <t>170005|230005|320026|270006|100005|190030|320020|300031|60008</t>
+  </si>
+  <si>
+    <t>290028|270021|190027|110022|100030|230008|150027|40012|160023|100008|80016|130015|20013|270015|240026|160010|60011|150007|70026</t>
+  </si>
+  <si>
+    <t>170026|40007</t>
+  </si>
+  <si>
+    <t>230019|140015|200023|150022|210014</t>
+  </si>
+  <si>
+    <t>170012|240015|240022|120019|180025</t>
+  </si>
+  <si>
+    <t>260019|220011|210027|280015</t>
+  </si>
+  <si>
+    <t>120011|90017|290023|130026|180009</t>
+  </si>
+  <si>
+    <t>70022|100026|80009|70014|270010</t>
+  </si>
+  <si>
+    <t>220006|190030|170006|110030|140008</t>
+  </si>
+  <si>
+    <t>40015|40020|40009|70005|70027</t>
+  </si>
+  <si>
+    <t>320021|310027|270031|310012|310017</t>
+  </si>
+  <si>
+    <t>190003|40029|250004|280006|140004</t>
+  </si>
+  <si>
+    <t>50024|300009|60018|260023|290019|190006|200009|90024|150011|250026|100014|260007|50012|110005|170027|80012</t>
+  </si>
+  <si>
+    <t>110008|240029</t>
+  </si>
+  <si>
+    <t>回程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱  参数1 开启需要物品ID  参数2 开启后获得物品ID 参数3 获取数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定战斗：参数1 战斗组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机战斗：参数1 实际战斗点数 参数2 战斗组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场：进入所需物品ID|数量   参数2 战斗组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173|179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174|180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175|181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176|182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177|183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178|184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店：参数1 商店编号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个坐标探索值处理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标集合中，每个点的探索值=单坐标值配置数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +407,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,7 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,6 +456,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -590,27 +800,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -637,19 +846,19 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -713,22 +922,25 @@
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -736,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>7</v>
@@ -745,16 +957,19 @@
         <v>-1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -762,25 +977,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
         <v>-1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -788,22 +1006,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>100009</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -811,22 +1035,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>70003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>100013</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -834,22 +1064,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>-1</v>
       </c>
-      <c r="G8" s="2">
-        <v>130004</v>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -857,45 +1093,1965 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>150021</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>220016</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>180018</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>250005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>250030</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30021</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>150018</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>220018</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>180018</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>40009</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>150030</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40021</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I31" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>150014</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>220021</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="F34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>190017</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>70009</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>240006</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2">
+        <v>18</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>30028</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="F46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="2">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>210018</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>210021</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>180018</v>
+      </c>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>150011</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>270027</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="2">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="2">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="5">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2">
+        <v>15</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="5">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="2">
+        <v>16</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="2">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="5">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="2">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>30009</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="2">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>140011</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3</v>
+      </c>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="2">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>210011</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3</v>
+      </c>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>190018</v>
+      </c>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>260024</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3</v>
+      </c>
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>300013</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2">
+        <v>13</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2">
+        <v>15</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="5">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="2">
+        <v>16</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2</v>
+      </c>
+      <c r="I71" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="5">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2">
+        <v>17</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="5">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+      <c r="I73" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="5">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2">
+        <v>19</v>
+      </c>
+      <c r="F74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="5">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="2">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="2">
+        <v>2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="5">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2">
+        <v>21</v>
+      </c>
+      <c r="F76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>290003</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="2">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="5">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="2">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>250013</v>
+      </c>
+      <c r="H78" s="2">
+        <v>3</v>
+      </c>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="2">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>190013</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3</v>
+      </c>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>170018</v>
+      </c>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="5">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>110022</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" s="2">
+        <v>5</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="5">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>270026</v>
+      </c>
+      <c r="H83" s="2">
+        <v>5</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -803,10 +803,10 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1081,9 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1379,6 +1382,9 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1691,6 +1697,9 @@
         <v>1</v>
       </c>
       <c r="I31" s="2">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2081,6 +2090,9 @@
         <v>1</v>
       </c>
       <c r="I46" s="2">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2">
         <v>25</v>
       </c>
     </row>
@@ -2445,6 +2457,9 @@
         <v>1</v>
       </c>
       <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2">
         <v>33</v>
       </c>
     </row>
@@ -2887,6 +2902,9 @@
         <v>1</v>
       </c>
       <c r="I77" s="2">
+        <v>8</v>
+      </c>
+      <c r="J77" s="2">
         <v>44</v>
       </c>
     </row>

--- a/ExcelConfig/地图子表.xlsx
+++ b/ExcelConfig/地图子表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,92 @@
   </si>
   <si>
     <t>坐标集合中，每个点的探索值=单坐标值配置数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驿站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250011|90019</t>
+  </si>
+  <si>
+    <t>270029|80020</t>
+  </si>
+  <si>
+    <t>110024|210006</t>
+  </si>
+  <si>
+    <t>230008|150028</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驿站：参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ID  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具单价</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,13 +886,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1250,9 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -3065,7 +3153,178 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="5"/>
+      <c r="B84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="2">
+        <v>6</v>
+      </c>
+      <c r="F84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>120009</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>158</v>
+      </c>
+      <c r="J84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>260013</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>158</v>
+      </c>
+      <c r="J85" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2</v>
+      </c>
+      <c r="I86" s="2">
+        <v>158</v>
+      </c>
+      <c r="J86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2">
+        <v>158</v>
+      </c>
+      <c r="J87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="2">
+        <v>6</v>
+      </c>
+      <c r="F88" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H88" s="2">
+        <v>2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>158</v>
+      </c>
+      <c r="J88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="2">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>158</v>
+      </c>
+      <c r="J89" s="2">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
